--- a/data/output/FV2410_FV2404/UTILMD/55076.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55076.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6594" uniqueCount="499">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6615" uniqueCount="499">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1611,6 +1611,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U288" totalsRowShown="0">
+  <autoFilter ref="A1:U288"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1900,7 +1930,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -15955,5 +15988,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55076.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55076.xlsx
@@ -2888,7 +2888,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -4052,7 +4052,7 @@
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -5156,7 +5156,7 @@
         <v>465</v>
       </c>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -5376,7 +5376,7 @@
         <v>466</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -5592,7 +5592,7 @@
         <v>465</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5796,7 +5796,7 @@
         <v>468</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -6000,7 +6000,7 @@
         <v>469</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -6202,7 +6202,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6596,7 +6596,7 @@
         <v>465</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6904,7 +6904,7 @@
         <v>471</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -7052,7 +7052,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -7212,7 +7212,7 @@
         <v>473</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -7412,7 +7412,7 @@
         <v>465</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -7714,7 +7714,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -8544,7 +8544,7 @@
         <v>475</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -8860,7 +8860,7 @@
         <v>471</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -9170,7 +9170,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -9388,7 +9388,7 @@
         <v>477</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -9696,7 +9696,7 @@
         <v>478</v>
       </c>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -10102,7 +10102,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -10708,7 +10708,7 @@
         <v>480</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -10856,7 +10856,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -11018,7 +11018,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -11236,7 +11236,7 @@
         <v>482</v>
       </c>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -11384,7 +11384,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -11548,7 +11548,7 @@
         <v>483</v>
       </c>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -12278,7 +12278,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -12438,7 +12438,7 @@
         <v>484</v>
       </c>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -12652,7 +12652,7 @@
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -12808,7 +12808,7 @@
         <v>485</v>
       </c>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -12958,7 +12958,7 @@
         <v>486</v>
       </c>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -13176,7 +13176,7 @@
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -13340,7 +13340,7 @@
         <v>488</v>
       </c>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -13500,7 +13500,7 @@
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -13718,7 +13718,7 @@
         <v>490</v>
       </c>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -14130,7 +14130,7 @@
         <v>491</v>
       </c>
       <c r="L219" s="4"/>
-      <c r="M219" s="2" t="s">
+      <c r="M219" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N219" s="2" t="s">
@@ -14488,7 +14488,7 @@
         <v>492</v>
       </c>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -14636,7 +14636,7 @@
       </c>
       <c r="K229" s="2"/>
       <c r="L229" s="4"/>
-      <c r="M229" s="2" t="s">
+      <c r="M229" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N229" s="2" t="s">
@@ -14790,7 +14790,7 @@
       </c>
       <c r="K232" s="2"/>
       <c r="L232" s="4"/>
-      <c r="M232" s="2" t="s">
+      <c r="M232" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N232" s="2" t="s">
@@ -14938,7 +14938,7 @@
         <v>493</v>
       </c>
       <c r="L235" s="4"/>
-      <c r="M235" s="2" t="s">
+      <c r="M235" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N235" s="2" t="s">
@@ -15098,7 +15098,7 @@
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="4"/>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N238" s="2" t="s">
@@ -15420,7 +15420,7 @@
         <v>492</v>
       </c>
       <c r="L244" s="4"/>
-      <c r="M244" s="2" t="s">
+      <c r="M244" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N244" s="2" t="s">
@@ -15710,7 +15710,7 @@
       </c>
       <c r="K250" s="2"/>
       <c r="L250" s="4"/>
-      <c r="M250" s="2" t="s">
+      <c r="M250" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N250" s="2" t="s">
@@ -15870,7 +15870,7 @@
         <v>496</v>
       </c>
       <c r="L253" s="4"/>
-      <c r="M253" s="2" t="s">
+      <c r="M253" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N253" s="2" t="s">
@@ -16018,7 +16018,7 @@
       </c>
       <c r="K256" s="2"/>
       <c r="L256" s="4"/>
-      <c r="M256" s="2" t="s">
+      <c r="M256" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N256" s="2" t="s">
@@ -16176,7 +16176,7 @@
       </c>
       <c r="K259" s="2"/>
       <c r="L259" s="4"/>
-      <c r="M259" s="2" t="s">
+      <c r="M259" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N259" s="2" t="s">
@@ -16334,7 +16334,7 @@
       </c>
       <c r="K262" s="2"/>
       <c r="L262" s="4"/>
-      <c r="M262" s="2" t="s">
+      <c r="M262" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N262" s="2" t="s">
@@ -16480,7 +16480,7 @@
       </c>
       <c r="K265" s="2"/>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -16640,7 +16640,7 @@
         <v>497</v>
       </c>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N268" s="2" t="s">
@@ -16954,7 +16954,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" s="4"/>
-      <c r="M274" s="2" t="s">
+      <c r="M274" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N274" s="2" t="s">
@@ -17168,7 +17168,7 @@
         <v>498</v>
       </c>
       <c r="L278" s="4"/>
-      <c r="M278" s="2" t="s">
+      <c r="M278" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N278" s="2" t="s">
@@ -17588,7 +17588,7 @@
       </c>
       <c r="K286" s="2"/>
       <c r="L286" s="4"/>
-      <c r="M286" s="2" t="s">
+      <c r="M286" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N286" s="2"/>
